--- a/tables/TableS6_bird_mammal_predator_populations.xlsx
+++ b/tables/TableS6_bird_mammal_predator_populations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58055F-38B4-8D46-BF10-EAFF3A4F1AF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDDF3D-F3D3-614F-8B54-A93E1418CA70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="3300" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="10140" windowWidth="42400" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nonfish_predator_to_prey_key" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="169">
   <si>
     <t>Brandt cormorant (Phalacrocorax penicillatus)</t>
   </si>
@@ -272,6 +272,261 @@
   </si>
   <si>
     <t>Add. important prey stocks</t>
+  </si>
+  <si>
+    <t>JNCC Data</t>
+  </si>
+  <si>
+    <t>occupied territory</t>
+  </si>
+  <si>
+    <t>Arctic tern Europe</t>
+  </si>
+  <si>
+    <t>unknown, weight</t>
+  </si>
+  <si>
+    <t>Anker-Nilssen and Aarvak 2006</t>
+  </si>
+  <si>
+    <t>apparently occupied burrows</t>
+  </si>
+  <si>
+    <t>Atlantic puffin Norwegian Sea</t>
+  </si>
+  <si>
+    <t>Cury et al. (2011)</t>
+  </si>
+  <si>
+    <t>occurence</t>
+  </si>
+  <si>
+    <t>index relative to 1978</t>
+  </si>
+  <si>
+    <t>Common guillemot Europe</t>
+  </si>
+  <si>
+    <t>count, occurence, weight</t>
+  </si>
+  <si>
+    <t>number of adults</t>
+  </si>
+  <si>
+    <t>Guanay cormorant Humboldt</t>
+  </si>
+  <si>
+    <t>count, unknown</t>
+  </si>
+  <si>
+    <t>Peruvian booby Humboldt</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Peruvian pelican Humboldt</t>
+  </si>
+  <si>
+    <t>Crawford et al 2008</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t>African penguin Benguela Current</t>
+  </si>
+  <si>
+    <t>Cape gannet Benguela Current</t>
+  </si>
+  <si>
+    <t>Bowen et al. 2003</t>
+  </si>
+  <si>
+    <t>pup production</t>
+  </si>
+  <si>
+    <t>Grey seal NW Atlantic</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Capitolo et al. 2014</t>
+  </si>
+  <si>
+    <t>nests (total)</t>
+  </si>
+  <si>
+    <t>Brandt cormorant NE Pacific</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Elliot et al. 2015</t>
+  </si>
+  <si>
+    <t>breeding adults</t>
+  </si>
+  <si>
+    <t>NOAA 2011</t>
+  </si>
+  <si>
+    <t>pups</t>
+  </si>
+  <si>
+    <t>California sea lion NE Pacific</t>
+  </si>
+  <si>
+    <t>Lee et al. 2008</t>
+  </si>
+  <si>
+    <t>population index</t>
+  </si>
+  <si>
+    <t>Common guillemot NE Pacific</t>
+  </si>
+  <si>
+    <t>Schaffner 1986, Velarde et al. 2015</t>
+  </si>
+  <si>
+    <t>breeding pairs</t>
+  </si>
+  <si>
+    <t>Elegant tern NE Pacific</t>
+  </si>
+  <si>
+    <t>Calambokidis 2013</t>
+  </si>
+  <si>
+    <t>abundance (total est.)</t>
+  </si>
+  <si>
+    <t>Humpback whale NE Pacific</t>
+  </si>
+  <si>
+    <t># of males (harem males + idle males)</t>
+  </si>
+  <si>
+    <t>Northern fur seal Pribolof Islands</t>
+  </si>
+  <si>
+    <t>Jeffries et al. 2003</t>
+  </si>
+  <si>
+    <t>Pacific harbor seal NE Pacific</t>
+  </si>
+  <si>
+    <t>energy, occurence, weight</t>
+  </si>
+  <si>
+    <t>Brown et al. 2005</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Abundance reference</t>
+  </si>
+  <si>
+    <t>Abundance units</t>
+  </si>
+  <si>
+    <t>Diet id</t>
+  </si>
+  <si>
+    <t># of diet references</t>
+  </si>
+  <si>
+    <t>Diet referenes</t>
+  </si>
+  <si>
+    <t>Contributing composition metrics</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Dunnet and Heubeck 1995</t>
+  </si>
+  <si>
+    <t>Towell et al. 2016</t>
+  </si>
+  <si>
+    <t>IMARPE</t>
+  </si>
+  <si>
+    <t>Tovar et al. in Pauly and Tsukayama 1987</t>
+  </si>
+  <si>
+    <t>Olesiuk 1993, Orr et al. 2014, Torok 1994, Luxa and Acevedo 2013, Orr et al. 2004</t>
+  </si>
+  <si>
+    <t>Sinclair et al 2008</t>
+  </si>
+  <si>
+    <t>Clapham 1997</t>
+  </si>
+  <si>
+    <t>Horn and Whitcombe 2015, Schaffner 1986</t>
+  </si>
+  <si>
+    <t>Ainley et al. 1996, Baltz and Morejohn 1977, Morejohn et al. 1978, Schrimpf et al. 2012</t>
+  </si>
+  <si>
+    <t>Lowry and Carreta 1999, Morejohn et al. 1978, Orr et al. 2011, Garcia-Rodriguez and Aurioles-Gamboa 2004, Mellinkelal 2005</t>
+  </si>
+  <si>
+    <t>Baltz and Morejohn 1977, Morejohn et al. 1978, Webb 2013, Elliot et al. 2015</t>
+  </si>
+  <si>
+    <t>Ampela 2009, Becket et al. 2007, Bowen et al. 1993, Staudinger and Juanes 2010a</t>
+  </si>
+  <si>
+    <t>Jordan 1967 in Muck and Pauly in Pauly and Tsukayama 1987</t>
+  </si>
+  <si>
+    <t>Boyd 2012, Jahncke and Goya 1997 in Goya 2000, Jordan 1967 in Muck and Pauly in Pauly and Tsukayama 1987, Muck and Pauly in Pauly and Tsukayama 1987</t>
+  </si>
+  <si>
+    <t>Furness (1983, 1989) in Furness 1990, Ewins 1985a in Furness 1990, Furness and Tasker 2000</t>
+  </si>
+  <si>
+    <t>Zavalaga and Paredes 1999, Boyd 2012, Jahncke and Goya 1997 in Goya 2000, Jordan 1959 in Muck and Pauly in Pauly and Tsukayama 1987, Jordan 1967 and Avila 1954 in Muck and Pauly in Pauly and Tsukayama 1987</t>
+  </si>
+  <si>
+    <t>Anker-Nilssen 2010, Wanless et al 2005, Blake et al 1985 in Furness 1990, Furness (1983, 1989) in Furness 1990, Rindorf et al 2000, Tasker et al 1987 in Furness 1990</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>17-42%</t>
+  </si>
+  <si>
+    <t>7-100%</t>
+  </si>
+  <si>
+    <t>3-82%</t>
+  </si>
+  <si>
+    <t>11-90%</t>
+  </si>
+  <si>
+    <t>1-47%</t>
+  </si>
+  <si>
+    <t>1-99%</t>
+  </si>
+  <si>
+    <t>58-92%</t>
+  </si>
+  <si>
+    <t>2-96%%</t>
+  </si>
+  <si>
+    <t>1-100%</t>
   </si>
 </sst>
 </file>
@@ -767,15 +1022,16 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1132,644 +1388,1193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="183.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.6865</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
+      <c r="K5" s="4">
+        <v>1.59248888888889</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.56000000000000005</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.69582857142857102</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.0308285714285701</v>
+      </c>
+      <c r="L6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.6865</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.59248888888889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.79567142857142903</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.79567142857142903</v>
+      </c>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.33500000000000002</v>
+      <c r="G8" s="4">
+        <v>0.79567142857142903</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.79567142857142903</v>
+      </c>
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4">
-        <v>0.79567142857142903</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.79567142857142903</v>
+      <c r="G9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.79567142857142903</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.79567142857142903</v>
+      <c r="G10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.8</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.8</v>
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.16266666666666699</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.16266666666666699</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.86</v>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.19992592592592601</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.19992592592592601</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.61</v>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.19992592592592601</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.19992592592592601</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="I16" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.107333333333333</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.107333333333333</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.16266666666666699</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.16266666666666699</v>
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.92107142857142899</v>
+      </c>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.42809000000000003</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.42809000000000003</v>
+      </c>
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.19992592592592601</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.19992592592592601</v>
+      <c r="P19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>62</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.57370420325000004</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.93019125848333295</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.19992592592592601</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.19992592592592601</v>
+      <c r="P20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>63</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.57370420325000004</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.93019125848333295</v>
+      </c>
+      <c r="L21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.107333333333333</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.107333333333333</v>
+      <c r="P21" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="4">
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.92107142857142899</v>
+      <c r="G22" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>65</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
       </c>
       <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.42809000000000003</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.42809000000000003</v>
+      <c r="P23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.72699999999999998</v>
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.57370420325000004</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.93019125848333295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.57370420325000004</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.93019125848333295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="G25" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
